--- a/biology/Botanique/Egregia/Egregia.xlsx
+++ b/biology/Botanique/Egregia/Egregia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Egregia est un genre d'algues brunes de la famille des Lessoniaceae selon AlgaeBase                                           (31 oct. 2012)[1],  Catalogue of Life                                   (8 janv. 2023)[2], World Register of Marine Species                               (31 oct. 2012)[3] et NCBI  (31 oct. 2012)[4] ou bien de la famille des Alariaceae selon ITIS      (31 oct. 2012)[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egregia est un genre d'algues brunes de la famille des Lessoniaceae selon AlgaeBase                                           (31 oct. 2012),  Catalogue of Life                                   (8 janv. 2023), World Register of Marine Species                               (31 oct. 2012) et NCBI  (31 oct. 2012) ou bien de la famille des Alariaceae selon ITIS      (31 oct. 2012). 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 oct. 2012) :
 Egregia australis Hollenberg
-Selon ITIS      (31 oct. 2012)[5] et NCBI  (31 oct. 2012)[4] :
+Selon ITIS      (31 oct. 2012) et NCBI  (31 oct. 2012) :
 Egregia menziesii (Turner) Areschoug
-Selon World Register of Marine Species                               (31 oct. 2012)[3] :
+Selon World Register of Marine Species                               (31 oct. 2012) :
 Egregia australis Hollenberg, 1957
 Egregia menziesii (Turner) Areschoug, 1876</t>
         </is>
